--- a/comparaison_scenarios_EPR.xlsx
+++ b/comparaison_scenarios_EPR.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Valeurs absolues" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Delta % vs 10 EPR" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Delta % vs 08 EPR" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Synthèse clés" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,32 +438,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>08 EPR</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>10 EPR</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>12 EPR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>14 EPR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>16 EPR</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>8 EPR</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>comparaison scenarios EPR</t>
         </is>
       </c>
     </row>
@@ -474,21 +469,20 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C2" t="n">
         <v>8.600000000000001</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>4.999999999999999</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.6</v>
       </c>
-      <c r="F2" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -497,21 +491,20 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>0.1556776556776557</v>
+      </c>
+      <c r="C3" t="n">
         <v>0.1018772893772894</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0.05952380952380952</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>0.03777472527472527</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.01831501831501832</v>
       </c>
-      <c r="F3" t="n">
-        <v>0.1556776556776557</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -520,21 +513,20 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>105764</v>
+      </c>
+      <c r="C4" t="n">
         <v>61141</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>33818</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>21822</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>8771</v>
       </c>
-      <c r="F4" t="n">
-        <v>105764</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -543,21 +535,20 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>1712574</v>
+      </c>
+      <c r="C5" t="n">
         <v>1907513</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>2166605</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>2410634</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>2686190</v>
       </c>
-      <c r="F5" t="n">
-        <v>1712574</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -566,21 +557,20 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>7196649</v>
+      </c>
+      <c r="C6" t="n">
         <v>6844307</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>6479600</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>6103850</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>5687939</v>
       </c>
-      <c r="F6" t="n">
-        <v>7196649</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -589,21 +579,20 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>12669009234</v>
+      </c>
+      <c r="C7" t="n">
         <v>12993442119</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>13307910573</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>13577066367</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>13850571183</v>
       </c>
-      <c r="F7" t="n">
-        <v>12669009234</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -612,21 +601,20 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>118.2891617445055</v>
+      </c>
+      <c r="C8" t="n">
         <v>108.3054508356227</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>100.5837409684066</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>94.25861191620879</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>87.65839238782051</v>
       </c>
-      <c r="F8" t="n">
-        <v>118.2891617445055</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -635,21 +623,20 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>752.9883</v>
+      </c>
+      <c r="C9" t="n">
         <v>737.3114</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>721.6236</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>718.2603</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>696.5546000000001</v>
       </c>
-      <c r="F9" t="n">
-        <v>752.9883</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -658,21 +645,20 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>100.58025</v>
+      </c>
+      <c r="C10" t="n">
         <v>96.64320000000001</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>92.76445000000001</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>88.93934999999999</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>84.44990000000001</v>
       </c>
-      <c r="F10" t="n">
-        <v>100.58025</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -681,21 +667,20 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>109315067</v>
+      </c>
+      <c r="C11" t="n">
         <v>125651658</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>141761370</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>156426412</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>171662315</v>
       </c>
-      <c r="F11" t="n">
-        <v>109315067</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -718,7 +703,6 @@
       <c r="F12" t="n">
         <v>611286696</v>
       </c>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -727,21 +711,20 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>337771807</v>
+      </c>
+      <c r="C13" t="n">
         <v>356083119</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>374266444</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>391018756</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>408527587</v>
       </c>
-      <c r="F13" t="n">
-        <v>337771807</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -750,21 +733,20 @@
         </is>
       </c>
       <c r="B14" t="n">
+        <v>31490623</v>
+      </c>
+      <c r="C14" t="n">
         <v>29822739</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>28104216</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>26351903</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>24443083</v>
       </c>
-      <c r="F14" t="n">
-        <v>31490623</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -787,7 +769,6 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -810,7 +791,6 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -833,7 +813,6 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
-      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -856,7 +835,6 @@
       <c r="F18" t="n">
         <v>96761745</v>
       </c>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -879,7 +857,6 @@
       <c r="F19" t="n">
         <v>102010368</v>
       </c>
-      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -902,7 +879,6 @@
       <c r="F20" t="n">
         <v>86297002</v>
       </c>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -925,7 +901,6 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
-      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -948,7 +923,6 @@
       <c r="F22" t="n">
         <v>37822632</v>
       </c>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -957,21 +931,20 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>17533951</v>
+      </c>
+      <c r="C23" t="n">
         <v>17533974</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>17533986</v>
       </c>
-      <c r="D23" t="n">
+      <c r="E23" t="n">
         <v>17533954</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>17533963</v>
       </c>
-      <c r="F23" t="n">
-        <v>17533951</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -980,21 +953,20 @@
         </is>
       </c>
       <c r="B24" t="n">
+        <v>47.5944000855542</v>
+      </c>
+      <c r="C24" t="n">
         <v>49.02487091229721</v>
       </c>
-      <c r="C24" t="n">
+      <c r="D24" t="n">
         <v>50.38614181854273</v>
       </c>
-      <c r="D24" t="n">
+      <c r="E24" t="n">
         <v>51.5994502797559</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>52.82253674370703</v>
       </c>
-      <c r="F24" t="n">
-        <v>47.5944000855542</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1003,21 +975,20 @@
         </is>
       </c>
       <c r="B25" t="n">
+        <v>4.437248103437345</v>
+      </c>
+      <c r="C25" t="n">
         <v>4.105940022745451</v>
       </c>
-      <c r="C25" t="n">
+      <c r="D25" t="n">
         <v>3.783569261354774</v>
       </c>
-      <c r="D25" t="n">
+      <c r="E25" t="n">
         <v>3.477438582576458</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>3.160485830047459</v>
       </c>
-      <c r="F25" t="n">
-        <v>4.437248103437345</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1026,21 +997,20 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>10.14057966600225</v>
+      </c>
+      <c r="C26" t="n">
         <v>9.423116380845117</v>
       </c>
-      <c r="C26" t="n">
+      <c r="D26" t="n">
         <v>8.72325183733088</v>
       </c>
-      <c r="D26" t="n">
+      <c r="E26" t="n">
         <v>8.054736499394112</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>7.354493953023157</v>
       </c>
-      <c r="F26" t="n">
-        <v>10.14057966600225</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1053,7 +1023,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1064,32 +1034,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>08 EPR</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>10 EPR</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>12 EPR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>14 EPR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>16 EPR</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>8 EPR</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>comparaison scenarios EPR</t>
         </is>
       </c>
     </row>
@@ -1103,18 +1068,17 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>-41.86</v>
+        <v>-34.85</v>
       </c>
       <c r="D2" t="n">
-        <v>-62.79</v>
+        <v>-62.12</v>
       </c>
       <c r="E2" t="n">
-        <v>-81.40000000000001</v>
+        <v>-75.76000000000001</v>
       </c>
       <c r="F2" t="n">
-        <v>53.49</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
+        <v>-87.88</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1126,18 +1090,17 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>-41.57</v>
+        <v>-34.56</v>
       </c>
       <c r="D3" t="n">
-        <v>-62.92</v>
+        <v>-61.76</v>
       </c>
       <c r="E3" t="n">
-        <v>-82.02</v>
+        <v>-75.73999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>52.81</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>-88.23999999999999</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1149,18 +1112,17 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>-44.69</v>
+        <v>-42.19</v>
       </c>
       <c r="D4" t="n">
-        <v>-64.31</v>
+        <v>-68.03</v>
       </c>
       <c r="E4" t="n">
-        <v>-85.65000000000001</v>
+        <v>-79.37</v>
       </c>
       <c r="F4" t="n">
-        <v>72.98</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+        <v>-91.70999999999999</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1172,18 +1134,17 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>13.58</v>
+        <v>11.38</v>
       </c>
       <c r="D5" t="n">
-        <v>26.38</v>
+        <v>26.51</v>
       </c>
       <c r="E5" t="n">
-        <v>40.82</v>
+        <v>40.76</v>
       </c>
       <c r="F5" t="n">
-        <v>-10.22</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
+        <v>56.85</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1195,18 +1156,17 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>-5.33</v>
+        <v>-4.9</v>
       </c>
       <c r="D6" t="n">
-        <v>-10.82</v>
+        <v>-9.960000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>-16.9</v>
+        <v>-15.18</v>
       </c>
       <c r="F6" t="n">
-        <v>5.15</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
+        <v>-20.96</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1218,18 +1178,17 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>2.42</v>
+        <v>2.56</v>
       </c>
       <c r="D7" t="n">
-        <v>4.49</v>
+        <v>5.04</v>
       </c>
       <c r="E7" t="n">
-        <v>6.6</v>
+        <v>7.17</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.5</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
+        <v>9.33</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1241,18 +1200,17 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>-7.13</v>
+        <v>-8.44</v>
       </c>
       <c r="D8" t="n">
-        <v>-12.97</v>
+        <v>-14.97</v>
       </c>
       <c r="E8" t="n">
-        <v>-19.06</v>
+        <v>-20.32</v>
       </c>
       <c r="F8" t="n">
-        <v>9.220000000000001</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
+        <v>-25.89</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1264,18 +1222,17 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>-2.13</v>
+        <v>-2.08</v>
       </c>
       <c r="D9" t="n">
-        <v>-2.58</v>
+        <v>-4.17</v>
       </c>
       <c r="E9" t="n">
-        <v>-5.53</v>
+        <v>-4.61</v>
       </c>
       <c r="F9" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
+        <v>-7.49</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1287,18 +1244,17 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>-4.01</v>
+        <v>-3.91</v>
       </c>
       <c r="D10" t="n">
-        <v>-7.97</v>
+        <v>-7.77</v>
       </c>
       <c r="E10" t="n">
-        <v>-12.62</v>
+        <v>-11.57</v>
       </c>
       <c r="F10" t="n">
-        <v>4.07</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
+        <v>-16.04</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1310,18 +1266,17 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>12.82</v>
+        <v>14.94</v>
       </c>
       <c r="D11" t="n">
-        <v>24.49</v>
+        <v>29.68</v>
       </c>
       <c r="E11" t="n">
-        <v>36.62</v>
+        <v>43.1</v>
       </c>
       <c r="F11" t="n">
-        <v>-13</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
+        <v>57.03</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1344,7 +1299,6 @@
       <c r="F12" t="n">
         <v>0</v>
       </c>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1356,18 +1310,17 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>5.11</v>
+        <v>5.42</v>
       </c>
       <c r="D13" t="n">
-        <v>9.81</v>
+        <v>10.8</v>
       </c>
       <c r="E13" t="n">
-        <v>14.73</v>
+        <v>15.76</v>
       </c>
       <c r="F13" t="n">
-        <v>-5.14</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
+        <v>20.95</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -1379,18 +1332,17 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>-5.76</v>
+        <v>-5.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-11.64</v>
+        <v>-10.75</v>
       </c>
       <c r="E14" t="n">
-        <v>-18.04</v>
+        <v>-16.32</v>
       </c>
       <c r="F14" t="n">
-        <v>5.59</v>
-      </c>
-      <c r="G14" t="inlineStr"/>
+        <v>-22.38</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -1413,7 +1365,6 @@
       <c r="F15" t="n">
         <v>0</v>
       </c>
-      <c r="G15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -1436,7 +1387,6 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
-      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -1459,7 +1409,6 @@
       <c r="F17" t="n">
         <v>0</v>
       </c>
-      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -1482,7 +1431,6 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
-      <c r="G18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -1505,7 +1453,6 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
-      <c r="G19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -1528,7 +1475,6 @@
       <c r="F20" t="n">
         <v>0</v>
       </c>
-      <c r="G20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -1551,7 +1497,6 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
-      <c r="G21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -1574,7 +1519,6 @@
       <c r="F22" t="n">
         <v>0</v>
       </c>
-      <c r="G22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
@@ -1589,15 +1533,14 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>-0</v>
-      </c>
-      <c r="G23" t="inlineStr"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
@@ -1609,18 +1552,17 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2.78</v>
+        <v>3.01</v>
       </c>
       <c r="D24" t="n">
-        <v>5.25</v>
+        <v>5.87</v>
       </c>
       <c r="E24" t="n">
-        <v>7.75</v>
+        <v>8.41</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.92</v>
-      </c>
-      <c r="G24" t="inlineStr"/>
+        <v>10.98</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
@@ -1632,18 +1574,17 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-7.85</v>
+        <v>-7.47</v>
       </c>
       <c r="D25" t="n">
-        <v>-15.31</v>
+        <v>-14.73</v>
       </c>
       <c r="E25" t="n">
-        <v>-23.03</v>
+        <v>-21.63</v>
       </c>
       <c r="F25" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="G25" t="inlineStr"/>
+        <v>-28.77</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
@@ -1655,18 +1596,17 @@
         <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>-7.43</v>
+        <v>-7.08</v>
       </c>
       <c r="D26" t="n">
-        <v>-14.52</v>
+        <v>-13.98</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.95</v>
+        <v>-20.57</v>
       </c>
       <c r="F26" t="n">
-        <v>7.61</v>
-      </c>
-      <c r="G26" t="inlineStr"/>
+        <v>-27.47</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1679,7 +1619,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1690,32 +1630,27 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>08 EPR</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>10 EPR</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>12 EPR</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>14 EPR</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>16 EPR</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>8 EPR</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>comparaison scenarios EPR</t>
         </is>
       </c>
     </row>
@@ -1726,21 +1661,20 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>13.2</v>
+      </c>
+      <c r="C2" t="n">
         <v>8.600000000000001</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>4.999999999999999</v>
       </c>
-      <c r="D2" t="n">
+      <c r="E2" t="n">
         <v>3.200000000000001</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>1.6</v>
       </c>
-      <c r="F2" t="n">
-        <v>13.2</v>
-      </c>
-      <c r="G2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -1749,21 +1683,20 @@
         </is>
       </c>
       <c r="B3" t="n">
+        <v>105764</v>
+      </c>
+      <c r="C3" t="n">
         <v>61141</v>
       </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>33818</v>
       </c>
-      <c r="D3" t="n">
+      <c r="E3" t="n">
         <v>21822</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>8771</v>
       </c>
-      <c r="F3" t="n">
-        <v>105764</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -1772,21 +1705,20 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>1712574</v>
+      </c>
+      <c r="C4" t="n">
         <v>1907513</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>2166605</v>
       </c>
-      <c r="D4" t="n">
+      <c r="E4" t="n">
         <v>2410634</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>2686190</v>
       </c>
-      <c r="F4" t="n">
-        <v>1712574</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -1795,21 +1727,20 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>7196649</v>
+      </c>
+      <c r="C5" t="n">
         <v>6844307</v>
       </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>6479600</v>
       </c>
-      <c r="D5" t="n">
+      <c r="E5" t="n">
         <v>6103850</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>5687939</v>
       </c>
-      <c r="F5" t="n">
-        <v>7196649</v>
-      </c>
-      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1818,21 +1749,20 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>10.14057966600225</v>
+      </c>
+      <c r="C6" t="n">
         <v>9.423116380845117</v>
       </c>
-      <c r="C6" t="n">
+      <c r="D6" t="n">
         <v>8.72325183733088</v>
       </c>
-      <c r="D6" t="n">
+      <c r="E6" t="n">
         <v>8.054736499394112</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>7.354493953023157</v>
       </c>
-      <c r="F6" t="n">
-        <v>10.14057966600225</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1841,21 +1771,20 @@
         </is>
       </c>
       <c r="B7" t="n">
+        <v>12669009234</v>
+      </c>
+      <c r="C7" t="n">
         <v>12993442119</v>
       </c>
-      <c r="C7" t="n">
+      <c r="D7" t="n">
         <v>13307910573</v>
       </c>
-      <c r="D7" t="n">
+      <c r="E7" t="n">
         <v>13577066367</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>13850571183</v>
       </c>
-      <c r="F7" t="n">
-        <v>12669009234</v>
-      </c>
-      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -1864,21 +1793,20 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>118.2891617445055</v>
+      </c>
+      <c r="C8" t="n">
         <v>108.3054508356227</v>
       </c>
-      <c r="C8" t="n">
+      <c r="D8" t="n">
         <v>100.5837409684066</v>
       </c>
-      <c r="D8" t="n">
+      <c r="E8" t="n">
         <v>94.25861191620879</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>87.65839238782051</v>
       </c>
-      <c r="F8" t="n">
-        <v>118.2891617445055</v>
-      </c>
-      <c r="G8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -1887,21 +1815,20 @@
         </is>
       </c>
       <c r="B9" t="n">
+        <v>109315067</v>
+      </c>
+      <c r="C9" t="n">
         <v>125651658</v>
       </c>
-      <c r="C9" t="n">
+      <c r="D9" t="n">
         <v>141761370</v>
       </c>
-      <c r="D9" t="n">
+      <c r="E9" t="n">
         <v>156426412</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>171662315</v>
       </c>
-      <c r="F9" t="n">
-        <v>109315067</v>
-      </c>
-      <c r="G9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -1910,21 +1837,20 @@
         </is>
       </c>
       <c r="B10" t="n">
+        <v>337771807</v>
+      </c>
+      <c r="C10" t="n">
         <v>356083119</v>
       </c>
-      <c r="C10" t="n">
+      <c r="D10" t="n">
         <v>374266444</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>391018756</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>408527587</v>
       </c>
-      <c r="F10" t="n">
-        <v>337771807</v>
-      </c>
-      <c r="G10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -1933,21 +1859,20 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>31490623</v>
+      </c>
+      <c r="C11" t="n">
         <v>29822739</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>28104216</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>26351903</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>24443083</v>
       </c>
-      <c r="F11" t="n">
-        <v>31490623</v>
-      </c>
-      <c r="G11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -1956,21 +1881,20 @@
         </is>
       </c>
       <c r="B12" t="n">
+        <v>47.5944000855542</v>
+      </c>
+      <c r="C12" t="n">
         <v>49.02487091229721</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>50.38614181854273</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>51.5994502797559</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>52.82253674370703</v>
       </c>
-      <c r="F12" t="n">
-        <v>47.5944000855542</v>
-      </c>
-      <c r="G12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -1979,21 +1903,20 @@
         </is>
       </c>
       <c r="B13" t="n">
+        <v>4.437248103437345</v>
+      </c>
+      <c r="C13" t="n">
         <v>4.105940022745451</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>3.783569261354774</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>3.477438582576458</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>3.160485830047459</v>
       </c>
-      <c r="F13" t="n">
-        <v>4.437248103437345</v>
-      </c>
-      <c r="G13" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
